--- a/define.xlsx
+++ b/define.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,22 @@
 二、能用Int2/Int3尽量不用IntArr。因为Int2/Int3会限定长度，而Arr是没有长度限制的
 三、这里为了省事，把int和string做了强制分离，int字段不要带string
 四、暂时没引入int64，有需要再引入，或者直接把int搞成int64,反正现在操作系统都是64位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111|222|333|444+555|666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa|bbb|ccc|ddd+eee|fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntArr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringArr2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,10 +197,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,10 +506,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -511,7 +527,7 @@
       <c r="B1">
         <v>123</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -522,7 +538,7 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -531,7 +547,7 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1">
@@ -541,11 +557,11 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -554,7 +570,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -563,7 +579,7 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
@@ -572,7 +588,7 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1">
@@ -582,11 +598,11 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -595,7 +611,7 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -604,7 +620,7 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
@@ -613,7 +629,7 @@
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1">
@@ -623,8 +639,28 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="3"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C14">
